--- a/docs/ProgrammingLog.xlsx
+++ b/docs/ProgrammingLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\SEGroup4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\SEGroup4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Spotify create playlist based on keywords</t>
+  </si>
+  <si>
+    <t>Navigating JSON structure of the return values</t>
+  </si>
+  <si>
+    <t>Printing out JSON and reading it</t>
   </si>
 </sst>
 </file>
@@ -119,7 +125,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -146,11 +152,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,25 +179,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -211,7 +202,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,7 +489,7 @@
   <dimension ref="C2:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,9 +606,13 @@
       <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>

--- a/docs/ProgrammingLog.xlsx
+++ b/docs/ProgrammingLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\SEGroup4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\SEGroup4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -35,12 +35,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Build function for extracting keywords from string</t>
-  </si>
-  <si>
-    <t>Build function for retrieving top headlines</t>
-  </si>
-  <si>
     <t>Pair Programming</t>
   </si>
   <si>
@@ -50,9 +44,6 @@
     <t>Yifan (Driver) &amp; Rob (Observer)</t>
   </si>
   <si>
-    <t>Craig (Observer) &amp; Rob (Driver)</t>
-  </si>
-  <si>
     <t>Josh (Driver) &amp; Ben (Observer)</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>C# Programming less compatible with APIs which made the whole Program harder to develop.</t>
   </si>
   <si>
-    <t>Switch language to python instead.</t>
-  </si>
-  <si>
     <t>Solution</t>
   </si>
   <si>
@@ -93,13 +81,91 @@
   </si>
   <si>
     <t>Printing out JSON and reading it</t>
+  </si>
+  <si>
+    <t>JSON Parsing not working</t>
+  </si>
+  <si>
+    <t>Sprint No.</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Initial keyword extraction algorithm failed</t>
+  </si>
+  <si>
+    <t>Used NLTK (Natural Language Toolit)</t>
+  </si>
+  <si>
+    <t>Put together the functions to work with GUI</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Build function for retrieving top headlines (C#)</t>
+  </si>
+  <si>
+    <t>Build function for extracting keywords from string (C#)</t>
+  </si>
+  <si>
+    <t>Spotify create playlist based on words (C#)</t>
+  </si>
+  <si>
+    <t>Josh (Driver) &amp; Yifan (Observer)</t>
+  </si>
+  <si>
+    <t>C# was less compatible with Spotify API</t>
+  </si>
+  <si>
+    <t>Switch to Python</t>
+  </si>
+  <si>
+    <t>Switch language to Python</t>
+  </si>
+  <si>
+    <t>Rob (Driver) &amp; Craig (Observer)</t>
+  </si>
+  <si>
+    <t>Build function for retrieving top headlines (Python)</t>
+  </si>
+  <si>
+    <t>Yifan (Driver) &amp; Josh (Observer)</t>
+  </si>
+  <si>
+    <t>Build function for extracting keywords from string (Python)</t>
+  </si>
+  <si>
+    <t>Josh (Driver) &amp; Craig (Observer)</t>
+  </si>
+  <si>
+    <t>Spotify create playlist based on words (Python)</t>
+  </si>
+  <si>
+    <t>Make changes to the code when pasting into Python</t>
+  </si>
+  <si>
+    <t>Converting C# to Python</t>
+  </si>
+  <si>
+    <t>Yifan (Driver) &amp; Craig (Observer)</t>
+  </si>
+  <si>
+    <t>Display headlines used by playlist + Keywords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,8 +196,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,13 +219,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,15 +258,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -199,10 +277,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,385 +568,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H40"/>
+  <dimension ref="C2:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="3:9" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>43792</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="4">
+        <v>43792</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>43797</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>43797</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>43773</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="F9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>43773</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>43777</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>43777</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>43780</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>43780</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="5">
-        <v>43792</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="5">
-        <v>43792</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="5">
-        <v>43797</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="5">
-        <v>43773</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="H14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="5">
-        <v>43780</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>43788</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/ProgrammingLog.xlsx
+++ b/docs/ProgrammingLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\SEGroup4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\SEGroup4\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,12 @@
     <t>Status</t>
   </si>
   <si>
+    <t>Build function for extracting keywords from string</t>
+  </si>
+  <si>
+    <t>Build function for retrieving top headlines</t>
+  </si>
+  <si>
     <t>Pair Programming</t>
   </si>
   <si>
@@ -44,6 +50,9 @@
     <t>Yifan (Driver) &amp; Rob (Observer)</t>
   </si>
   <si>
+    <t>Craig (Observer) &amp; Rob (Driver)</t>
+  </si>
+  <si>
     <t>Josh (Driver) &amp; Ben (Observer)</t>
   </si>
   <si>
@@ -65,6 +74,9 @@
     <t>C# Programming less compatible with APIs which made the whole Program harder to develop.</t>
   </si>
   <si>
+    <t>Switch language to python instead.</t>
+  </si>
+  <si>
     <t>Solution</t>
   </si>
   <si>
@@ -81,91 +93,13 @@
   </si>
   <si>
     <t>Printing out JSON and reading it</t>
-  </si>
-  <si>
-    <t>JSON Parsing not working</t>
-  </si>
-  <si>
-    <t>Sprint No.</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Initial keyword extraction algorithm failed</t>
-  </si>
-  <si>
-    <t>Used NLTK (Natural Language Toolit)</t>
-  </si>
-  <si>
-    <t>Put together the functions to work with GUI</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Build function for retrieving top headlines (C#)</t>
-  </si>
-  <si>
-    <t>Build function for extracting keywords from string (C#)</t>
-  </si>
-  <si>
-    <t>Spotify create playlist based on words (C#)</t>
-  </si>
-  <si>
-    <t>Josh (Driver) &amp; Yifan (Observer)</t>
-  </si>
-  <si>
-    <t>C# was less compatible with Spotify API</t>
-  </si>
-  <si>
-    <t>Switch to Python</t>
-  </si>
-  <si>
-    <t>Switch language to Python</t>
-  </si>
-  <si>
-    <t>Rob (Driver) &amp; Craig (Observer)</t>
-  </si>
-  <si>
-    <t>Build function for retrieving top headlines (Python)</t>
-  </si>
-  <si>
-    <t>Yifan (Driver) &amp; Josh (Observer)</t>
-  </si>
-  <si>
-    <t>Build function for extracting keywords from string (Python)</t>
-  </si>
-  <si>
-    <t>Josh (Driver) &amp; Craig (Observer)</t>
-  </si>
-  <si>
-    <t>Spotify create playlist based on words (Python)</t>
-  </si>
-  <si>
-    <t>Make changes to the code when pasting into Python</t>
-  </si>
-  <si>
-    <t>Converting C# to Python</t>
-  </si>
-  <si>
-    <t>Yifan (Driver) &amp; Craig (Observer)</t>
-  </si>
-  <si>
-    <t>Display headlines used by playlist + Keywords</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,15 +130,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,18 +146,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -258,15 +180,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -277,14 +199,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -568,300 +486,385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:I16"/>
+  <dimension ref="C2:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="48.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C2" s="6" t="s">
+    <row r="2" spans="3:8" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>43792</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>43792</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>43797</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="E7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>43773</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>43780</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="4">
-        <v>43792</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="4">
-        <v>43792</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="4">
-        <v>43797</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="4">
-        <v>43797</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="4">
-        <v>43773</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
-        <v>43773</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
-        <v>43777</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C12" s="4">
-        <v>43777</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="4">
-        <v>43780</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C14" s="4">
-        <v>43780</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
-        <v>43788</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C2:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/docs/ProgrammingLog.xlsx
+++ b/docs/ProgrammingLog.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\computing\Desktop\SEGroup4\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Computer Science\Year 3\Semester A\Software Engineering\SEGroup4-master\SEGroup4-master\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95742C1F-7243-4E30-8873-93E735AFD78B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="1410" yWindow="2220" windowWidth="25410" windowHeight="9090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,13 +275,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -567,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C2:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,15 +587,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:9" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
@@ -621,7 +622,7 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" s="4">
-        <v>43792</v>
+        <v>43761</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>4</v>
@@ -642,7 +643,7 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" s="4">
-        <v>43792</v>
+        <v>43761</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
@@ -659,11 +660,11 @@
       <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="8"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" s="4">
-        <v>43797</v>
+        <v>43766</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>5</v>
@@ -680,11 +681,11 @@
       <c r="H7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C8" s="4">
-        <v>43797</v>
+        <v>43766</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>31</v>
@@ -830,7 +831,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>43788</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -848,7 +849,7 @@
       <c r="H15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="9"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>
